--- a/data/Pension_Contributions.xlsx
+++ b/data/Pension_Contributions.xlsx
@@ -1,78 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humbl\OneDrive\Documents\R PROJECTS\Pension_Fund_Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Pension Contributions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
-  <si>
-    <t>MONTH</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January </t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>DATA ON CONTRIBUTIONS FROM 
 JANUARY 2022 TO DECEMBER 2023</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>AMOUNT (KES)</t>
   </si>
   <si>
-    <t>AMOUNT (KES)</t>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TOTAL FOR 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +59,21 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -108,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,24 +121,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -169,38 +137,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -208,6 +161,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -254,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,6 +282,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,288 +458,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="3"/>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>44562</v>
+      </c>
+      <c r="B3" s="6">
         <v>1347194329.49</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>44593</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1385093742.5999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>44621</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1435140023.5799999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>44652</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1290182105.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>44682</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1549295063.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>44713</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1626313119.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>44743</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1303951040.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>44774</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1369029559.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>44805</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1352613636.6700001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>44835</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1448548478.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>44866</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1468511219.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>44896</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1321102949.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
-        <v>1385093742.5999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1435140023.5799999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1290182105.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1549295063.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1626313119.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1303951040.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1369029559.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1352613636.6700001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1448548478.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1468511219.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1321102949.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14">
-        <f>SUM(C3:C14)</f>
+      <c r="B15" s="10">
+        <f>SUM(B3:B14)</f>
         <v>16896975267.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>44927</v>
+      </c>
+      <c r="B16" s="6">
         <v>1320140263.1400001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1548921118.6500001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>44986</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3549933822.9699998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>45017</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3437070813.8099999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3845351417.9099998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3949061157.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>45108</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3568191929.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3934962715.1199999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4683728746.3999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>45200</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4388984368.5600004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>45231</v>
+      </c>
+      <c r="B26" s="6">
+        <v>4713952103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>45261</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4471805454.3500004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="10">
-        <v>1548921118.6500001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10">
-        <v>3549933822.9699998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="10">
-        <v>3437070813.8099999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3845351417.9099998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="10">
-        <v>3949061157.79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="10">
-        <v>3568191929.77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="10">
-        <v>3934962715.1199999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="10">
-        <v>4683728746.3999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="10">
-        <v>4388984368.5600004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="10">
-        <v>4713952103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="10">
-        <v>4471805454.3500004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14">
-        <f>SUM(C17:C28)</f>
+      <c r="B28" s="10">
+        <f>SUM(B16:B27)</f>
         <v>43412103911.469994</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
